--- a/Macrofactor_nutrition_data.xlsx
+++ b/Macrofactor_nutrition_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5cb7086fcc607f5/00 - One Drive Vault/03 - Fitness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2E960BF8D204299328EAB398DBBC0A1011812B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5740DC9A-A135-477E-AE4A-2C38641A586D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_2E960BF8D204299328EAB398DBBC0A1011812B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCB3BF8-D334-4243-8927-B2722B353E92}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calories &amp; Macros" sheetId="1" r:id="rId1"/>
@@ -642,11 +642,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="HeaderStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -654,10 +653,10 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
@@ -766,7 +765,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{65876F13-210A-4842-87EC-239AE4F264D4}" name="Date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{727D7523-07FD-4392-AFA2-7BE940AA3240}" name="Weight (kg)"/>
-    <tableColumn id="3" xr3:uid="{E7028C6F-C23B-49EB-970A-860A94700BF0}" name="Fat Percent" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E7028C6F-C23B-49EB-970A-860A94700BF0}" name="Fat Percent" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,7 +775,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}" name="Table4" displayName="Table4" ref="A1:B8" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
   <autoFilter ref="A1:B8" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BF74E4DB-ACAA-4F26-9D4F-43F0FFF74D5E}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BF74E4DB-ACAA-4F26-9D4F-43F0FFF74D5E}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1B5E13FB-E45E-4D51-B928-F94A07282E1B}" name="Expenditure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2249,7 +2248,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,8 +2276,8 @@
       <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="3">
-        <v>20</v>
+      <c r="C2">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/Macrofactor_nutrition_data.xlsx
+++ b/Macrofactor_nutrition_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5cb7086fcc607f5/00 - One Drive Vault/03 - Fitness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2E960BF8D204299328EAB398DBBC0A1011812B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCB3BF8-D334-4243-8927-B2722B353E92}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_2E960BF8D204299328EAB398DBBC0A1011812B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D1FCBAB-91E6-4003-B6AD-5407D05FD1B9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calories &amp; Macros" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="367">
   <si>
     <t>Date</t>
   </si>
@@ -602,6 +602,528 @@
   </si>
   <si>
     <t>1955</t>
+  </si>
+  <si>
+    <t>3138</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>2948</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>2186</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>3116</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>3224</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>3179</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>132.3</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>22.9</t>
+  </si>
+  <si>
+    <t>4629.3</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>160.1</t>
+  </si>
+  <si>
+    <t>117.4</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>1417.2</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>475.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>1316.8</t>
+  </si>
+  <si>
+    <t>5883.2</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>4149.1</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>89.5</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>287.1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>319.9</t>
+  </si>
+  <si>
+    <t>71.8</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>1056.7</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>462.4</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>1289.1</t>
+  </si>
+  <si>
+    <t>6437.6</t>
+  </si>
+  <si>
+    <t>64.9</t>
+  </si>
+  <si>
+    <t>3356.1</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>50.7</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>229.3</t>
+  </si>
+  <si>
+    <t>585.4</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>522.3</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>826.7</t>
+  </si>
+  <si>
+    <t>2630.4</t>
+  </si>
+  <si>
+    <t>2322.5</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>142.3</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>1098.1</t>
+  </si>
+  <si>
+    <t>39.4</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>656.1</t>
+  </si>
+  <si>
+    <t>324.7</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1477.2</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>684.4</t>
+  </si>
+  <si>
+    <t>1616.2</t>
+  </si>
+  <si>
+    <t>3429.5</t>
+  </si>
+  <si>
+    <t>148.8</t>
+  </si>
+  <si>
+    <t>1877.7</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>37.9</t>
+  </si>
+  <si>
+    <t>51.8</t>
+  </si>
+  <si>
+    <t>28.9</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>685.6</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>201.9</t>
+  </si>
+  <si>
+    <t>46.4</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>434.8</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>382.3</t>
+  </si>
+  <si>
+    <t>1140.1</t>
+  </si>
+  <si>
+    <t>4027.1</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>1862.9</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>35.6</t>
+  </si>
+  <si>
+    <t>479.1</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>235.6</t>
+  </si>
+  <si>
+    <t>54.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>40.6</t>
+  </si>
+  <si>
+    <t>1507.3</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>326.6</t>
+  </si>
+  <si>
+    <t>1551.3</t>
+  </si>
+  <si>
+    <t>4734.3</t>
+  </si>
+  <si>
+    <t>95.3</t>
+  </si>
+  <si>
+    <t>4437.3</t>
+  </si>
+  <si>
+    <t>1171</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>80.4</t>
+  </si>
+  <si>
+    <t>81.6</t>
+  </si>
+  <si>
+    <t>80.8</t>
+  </si>
+  <si>
+    <t>82.2</t>
+  </si>
+  <si>
+    <t>81.2</t>
+  </si>
+  <si>
+    <t>81.3</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>2321</t>
+  </si>
+  <si>
+    <t>2322</t>
+  </si>
+  <si>
+    <t>2323</t>
   </si>
 </sst>
 </file>
@@ -680,13 +1202,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{855AA448-9EC9-4BF4-A43C-5065CF579FAA}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
-  <autoFilter ref="A1:E6" xr:uid="{855AA448-9EC9-4BF4-A43C-5065CF579FAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{855AA448-9EC9-4BF4-A43C-5065CF579FAA}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
+  <autoFilter ref="A1:E12" xr:uid="{855AA448-9EC9-4BF4-A43C-5065CF579FAA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{42730058-A96D-4972-BE87-E5C6B54B290E}" name="Date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{190652D9-C187-4CF1-940D-4CC3C12F558A}" name="Calories (kcal)"/>
@@ -699,8 +1217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B524872A-88AF-46DB-A055-23E44FAD7D1A}" name="Table2" displayName="Table2" ref="A1:AZ6" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
-  <autoFilter ref="A1:AZ6" xr:uid="{B524872A-88AF-46DB-A055-23E44FAD7D1A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B524872A-88AF-46DB-A055-23E44FAD7D1A}" name="Table2" displayName="Table2" ref="A1:AZ12" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
+  <autoFilter ref="A1:AZ12" xr:uid="{B524872A-88AF-46DB-A055-23E44FAD7D1A}"/>
   <tableColumns count="52">
     <tableColumn id="1" xr3:uid="{44B3D1B1-BA07-484D-97F5-BC1A9DA8EB7B}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D692BD2E-99C6-4647-936A-8CA38FF135BE}" name="Fiber (g)"/>
@@ -760,8 +1278,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD339CA5-0835-4F8E-A3D9-DC5D39ED8456}" name="Table3" displayName="Table3" ref="A1:C2" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
-  <autoFilter ref="A1:C2" xr:uid="{CD339CA5-0835-4F8E-A3D9-DC5D39ED8456}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD339CA5-0835-4F8E-A3D9-DC5D39ED8456}" name="Table3" displayName="Table3" ref="A1:C8" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
+  <autoFilter ref="A1:C8" xr:uid="{CD339CA5-0835-4F8E-A3D9-DC5D39ED8456}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{65876F13-210A-4842-87EC-239AE4F264D4}" name="Date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{727D7523-07FD-4392-AFA2-7BE940AA3240}" name="Weight (kg)"/>
@@ -772,8 +1290,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}" name="Table4" displayName="Table4" ref="A1:B8" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
-  <autoFilter ref="A1:B8" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}" name="Table4" displayName="Table4" ref="A1:B15" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
+  <autoFilter ref="A1:B15" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BF74E4DB-ACAA-4F26-9D4F-43F0FFF74D5E}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1B5E13FB-E45E-4D51-B928-F94A07282E1B}" name="Expenditure"/>
@@ -1099,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,6 +1734,108 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45699</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45704</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -1227,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A7" sqref="A7:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,6 +2854,954 @@
         <v>77</v>
       </c>
     </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>222</v>
+      </c>
+      <c r="R7" t="s">
+        <v>223</v>
+      </c>
+      <c r="S7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45699</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>247</v>
+      </c>
+      <c r="R8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>163</v>
+      </c>
+      <c r="R9" t="s">
+        <v>271</v>
+      </c>
+      <c r="S9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" t="s">
+        <v>291</v>
+      </c>
+      <c r="S10" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" t="s">
+        <v>102</v>
+      </c>
+      <c r="U10" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>306</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>308</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>313</v>
+      </c>
+      <c r="R11" t="s">
+        <v>314</v>
+      </c>
+      <c r="S11" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" t="s">
+        <v>179</v>
+      </c>
+      <c r="X11" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45704</v>
+      </c>
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>334</v>
+      </c>
+      <c r="R12" t="s">
+        <v>335</v>
+      </c>
+      <c r="S12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s">
+        <v>336</v>
+      </c>
+      <c r="X12" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>350</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -2245,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,6 +3848,72 @@
         <v>0.17</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45699</v>
+      </c>
+      <c r="B4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45704</v>
+      </c>
+      <c r="B8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8">
+        <v>0.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -2291,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,6 +4001,62 @@
         <v>192</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45699</v>
+      </c>
+      <c r="B10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45700</v>
+      </c>
+      <c r="B11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45704</v>
+      </c>
+      <c r="B15" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/Macrofactor_nutrition_data.xlsx
+++ b/Macrofactor_nutrition_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5cb7086fcc607f5/00 - One Drive Vault/03 - Fitness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_2E960BF8D204299328EAB398DBBC0A1011812B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D1FCBAB-91E6-4003-B6AD-5407D05FD1B9}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_2E960BF8D204299328EAB398DBBC0A1011812B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D87FFF-C658-461B-A528-2297CC2078F6}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calories &amp; Macros" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="446">
   <si>
     <t>Date</t>
   </si>
@@ -1124,13 +1124,250 @@
   </si>
   <si>
     <t>2323</t>
+  </si>
+  <si>
+    <t>3176</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>2516</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>3247</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>44.2</t>
+  </si>
+  <si>
+    <t>112.9</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>395.7</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>1040.4</t>
+  </si>
+  <si>
+    <t>426.4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>676.3</t>
+  </si>
+  <si>
+    <t>5410.2</t>
+  </si>
+  <si>
+    <t>78.7</t>
+  </si>
+  <si>
+    <t>4637.6</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>192.8</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>272.2</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>1963.9</t>
+  </si>
+  <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>565.2</t>
+  </si>
+  <si>
+    <t>342.4</t>
+  </si>
+  <si>
+    <t>1642.5</t>
+  </si>
+  <si>
+    <t>61.4</t>
+  </si>
+  <si>
+    <t>3773.6</t>
+  </si>
+  <si>
+    <t>14899</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>54.8</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>849.6</t>
+  </si>
+  <si>
+    <t>4744.7</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>91.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>89.8</t>
+  </si>
+  <si>
+    <t>213.4</t>
+  </si>
+  <si>
+    <t>256.9</t>
+  </si>
+  <si>
+    <t>293.8</t>
+  </si>
+  <si>
+    <t>858.2</t>
+  </si>
+  <si>
+    <t>412.5</t>
+  </si>
+  <si>
+    <t>806.1</t>
+  </si>
+  <si>
+    <t>4062.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>3917</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>81.1</t>
+  </si>
+  <si>
+    <t>81.8</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>2325</t>
+  </si>
+  <si>
+    <t>2328</t>
+  </si>
+  <si>
+    <t>2331</t>
+  </si>
+  <si>
+    <t>2326</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1142,19 +1379,128 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1164,24 +1510,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="HeaderStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
@@ -1202,11 +1621,15 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{855AA448-9EC9-4BF4-A43C-5065CF579FAA}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
-  <autoFilter ref="A1:E12" xr:uid="{855AA448-9EC9-4BF4-A43C-5065CF579FAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{855AA448-9EC9-4BF4-A43C-5065CF579FAA}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
+  <autoFilter ref="A1:E16" xr:uid="{855AA448-9EC9-4BF4-A43C-5065CF579FAA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{42730058-A96D-4972-BE87-E5C6B54B290E}" name="Date" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{42730058-A96D-4972-BE87-E5C6B54B290E}" name="Date" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{190652D9-C187-4CF1-940D-4CC3C12F558A}" name="Calories (kcal)"/>
     <tableColumn id="3" xr3:uid="{304DA47D-B4C4-45C6-883E-8C91270A7516}" name="Protein (g)"/>
     <tableColumn id="4" xr3:uid="{D33D400D-DEEB-445B-96AD-F41357E2CF20}" name="Fat (g)"/>
@@ -1217,83 +1640,83 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B524872A-88AF-46DB-A055-23E44FAD7D1A}" name="Table2" displayName="Table2" ref="A1:AZ12" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
-  <autoFilter ref="A1:AZ12" xr:uid="{B524872A-88AF-46DB-A055-23E44FAD7D1A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC88FE4E-F239-4314-9EEA-B39B04CD7602}" name="Table2" displayName="Table2" ref="A1:AZ16" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="5" headerRowCellStyle="HeaderStyle">
+  <autoFilter ref="A1:AZ16" xr:uid="{CC88FE4E-F239-4314-9EEA-B39B04CD7602}"/>
   <tableColumns count="52">
-    <tableColumn id="1" xr3:uid="{44B3D1B1-BA07-484D-97F5-BC1A9DA8EB7B}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D692BD2E-99C6-4647-936A-8CA38FF135BE}" name="Fiber (g)"/>
-    <tableColumn id="3" xr3:uid="{975A89F0-22BD-4698-8DF2-D9DCBEC30783}" name="Starch (g)"/>
-    <tableColumn id="4" xr3:uid="{99969B4A-91EF-442D-8842-B125B7879D27}" name="Sugars (g)"/>
-    <tableColumn id="5" xr3:uid="{6097DC16-997E-4E31-ABEF-2C68475683A8}" name="Sugars Added (g)"/>
-    <tableColumn id="6" xr3:uid="{788870CA-E895-468D-BAFF-78B6BD8F70D2}" name="Cysteine (g)"/>
-    <tableColumn id="7" xr3:uid="{0A904C5A-AF62-4841-BB86-C392859E9CE9}" name="Histidine (g)"/>
-    <tableColumn id="8" xr3:uid="{DA3F95C7-8B22-4C77-89AC-2918E6BE1DD6}" name="Isoleucine (g)"/>
-    <tableColumn id="9" xr3:uid="{13F7BCFF-7940-464B-BBE5-1B85133CFBE7}" name="Leucine (g)"/>
-    <tableColumn id="10" xr3:uid="{FE9BCA01-D65D-4E3A-B195-906AD3ACA0E4}" name="Lysine (g)"/>
-    <tableColumn id="11" xr3:uid="{731D5201-C36C-421B-93B6-B418F9E0AAFD}" name="Methionine (g)"/>
-    <tableColumn id="12" xr3:uid="{978D6CFB-165D-4922-8FC1-04E117AD1F4F}" name="Phenylalanine (g)"/>
-    <tableColumn id="13" xr3:uid="{0C6E3500-43D1-43CC-88AA-7EC07D9F0A77}" name="Threonine (g)"/>
-    <tableColumn id="14" xr3:uid="{9321AAA7-610F-44F2-9F95-FF728C1803E7}" name="Tryptophan (g)"/>
-    <tableColumn id="15" xr3:uid="{61D6EBC3-2FE3-4832-B532-698CDABB20DD}" name="Tyrosine (g)"/>
-    <tableColumn id="16" xr3:uid="{3E760DED-5880-487E-ABC7-DE87F8207DEC}" name="Valine (g)"/>
-    <tableColumn id="17" xr3:uid="{3BCB3D14-0F41-42B1-B606-80287E281FB4}" name="Monounsaturated Fat (g)"/>
-    <tableColumn id="18" xr3:uid="{AFD2A97E-0DFA-49CA-BFE8-8C615F6E19DC}" name="Polyunsaturated Fat (g)"/>
-    <tableColumn id="19" xr3:uid="{25FDC995-3D7E-46EB-93C9-974DE8EEE2FD}" name="Omega-3 (g)"/>
-    <tableColumn id="20" xr3:uid="{0EA42C57-1D3A-4EFA-9EA4-8AB5C30ADFD0}" name="Omega-3 ALA (g)"/>
-    <tableColumn id="21" xr3:uid="{C11B9310-683E-4EC0-B897-7C54EBDD59DE}" name="Omega-3 EPA (g)"/>
-    <tableColumn id="22" xr3:uid="{0B132D3A-6DFA-4894-84BA-CFBE42838F3E}" name="Omega-3 DHA (g)"/>
-    <tableColumn id="23" xr3:uid="{8A4F359B-BA69-4E09-9981-86B350050F73}" name="Omega-6 (g)"/>
-    <tableColumn id="24" xr3:uid="{0424BBE0-7217-40F6-80CC-A2124680AE1A}" name="Saturated Fat (g)"/>
-    <tableColumn id="25" xr3:uid="{9E0468A1-2A5E-487C-8A88-6672F266624F}" name="Trans Fat (g)"/>
-    <tableColumn id="26" xr3:uid="{1388F26B-B582-4108-98BD-CAC9E47BDE78}" name="Vitamin A (mcg)"/>
-    <tableColumn id="27" xr3:uid="{0D41BCFC-5C31-45EC-8448-F9C05A5DFB9A}" name="B1, Thiamine (mg)"/>
-    <tableColumn id="28" xr3:uid="{85433191-5617-4A0E-80AF-7CEF84B73B53}" name="B2, Riboflavin (mg)"/>
-    <tableColumn id="29" xr3:uid="{10D8B4E3-5C27-4AE3-94DE-A2F666BA80B8}" name="B3, Niacin (mg)"/>
-    <tableColumn id="30" xr3:uid="{6C42507D-9F20-4859-9D25-8AB6186256A6}" name="B5, Pantothenic Acid (mg)"/>
-    <tableColumn id="31" xr3:uid="{FE3A78F8-C3C4-4146-8847-B79D3846BA2E}" name="B6, Pyridoxine (mg)"/>
-    <tableColumn id="32" xr3:uid="{254CCE93-6A03-4D7F-AC47-566034F7626D}" name="B12, Cobalamin (mcg)"/>
-    <tableColumn id="33" xr3:uid="{EFA074B5-4A51-4027-9C21-7770E0316219}" name="Folate (mcg)"/>
-    <tableColumn id="34" xr3:uid="{D67389B6-07B2-4452-8E06-6E12B58DD4DA}" name="Vitamin C (mg)"/>
-    <tableColumn id="35" xr3:uid="{BC38F728-822D-44D1-B859-39A9FD595CAC}" name="Vitamin D (mcg)"/>
-    <tableColumn id="36" xr3:uid="{BD41D3E1-F5AD-4DB9-AECC-8F848F2BD743}" name="Vitamin E (mg)"/>
-    <tableColumn id="37" xr3:uid="{21ABDD90-2DBF-4ABD-9A17-F003D5F13A4A}" name="Vitamin K (mcg)"/>
-    <tableColumn id="38" xr3:uid="{8ADEE9BB-76E0-4BEB-8B1D-3F4B0DF6EF7D}" name="Calcium (mg)"/>
-    <tableColumn id="39" xr3:uid="{D4F53915-82FD-4077-96A8-CA8CE2C5ADE7}" name="Copper (mg)"/>
-    <tableColumn id="40" xr3:uid="{583E5047-27D2-462A-AF20-0D2F5795A485}" name="Iron (mg)"/>
-    <tableColumn id="41" xr3:uid="{94D5385C-D4F1-4AD9-99A8-ADC89657B029}" name="Magnesium (mg)"/>
-    <tableColumn id="42" xr3:uid="{5F1AA0A0-ACAB-4D79-A0CF-B3C6102D2341}" name="Manganese (mg)"/>
-    <tableColumn id="43" xr3:uid="{C30E2CAA-2553-4E76-A25A-A735372C673F}" name="Phosphorus (mg)"/>
-    <tableColumn id="44" xr3:uid="{AEC740B2-3B8B-4727-8A49-E7EE157F280A}" name="Potassium (mg)"/>
-    <tableColumn id="45" xr3:uid="{9EA80992-752E-47EE-855E-2A65078096F7}" name="Selenium (mcg)"/>
-    <tableColumn id="46" xr3:uid="{02F36151-6C0E-41FA-AB85-FDFB3CABD6D2}" name="Sodium (mg)"/>
-    <tableColumn id="47" xr3:uid="{8677FE9B-ADC2-4AE2-ABC2-34E177682CF1}" name="Zinc (mg)"/>
-    <tableColumn id="48" xr3:uid="{96582B92-A159-496D-A211-1C7038E6AF2C}" name="Water (g)"/>
-    <tableColumn id="49" xr3:uid="{5A273826-DC55-4527-9FB8-4A24AD23B25A}" name="Choline (mg)"/>
-    <tableColumn id="50" xr3:uid="{9536508F-3E68-426A-9988-861BF4B77A81}" name="Cholesterol (mg)"/>
-    <tableColumn id="51" xr3:uid="{17BE1DCE-BB67-4A99-8197-5BB1A2992DEE}" name="Caffeine (mg)"/>
-    <tableColumn id="52" xr3:uid="{D16EF135-1D08-4437-A076-AF9EDD6F4C26}" name="Alcohol (g)"/>
+    <tableColumn id="1" xr3:uid="{7E0ACE8F-FC50-40A5-A4D2-7800522572EC}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BF0CD12A-AA40-482C-B9CD-A78C2A54DAF4}" name="Fiber (g)"/>
+    <tableColumn id="3" xr3:uid="{8493319C-71F2-4352-AAC9-87FF49FAB285}" name="Starch (g)"/>
+    <tableColumn id="4" xr3:uid="{D3C3308A-E88F-4264-AEFF-6D10F2A33B49}" name="Sugars (g)"/>
+    <tableColumn id="5" xr3:uid="{4F31F3F7-7432-4443-A7E4-EF8A30D2FED3}" name="Sugars Added (g)"/>
+    <tableColumn id="6" xr3:uid="{7DD4898B-30FF-4CD1-837A-5863D84C7687}" name="Cysteine (g)"/>
+    <tableColumn id="7" xr3:uid="{246EEE4A-F0B7-4C46-88E1-528434EA4D2C}" name="Histidine (g)"/>
+    <tableColumn id="8" xr3:uid="{C4015A93-5289-4318-B200-7A37E066BA30}" name="Isoleucine (g)"/>
+    <tableColumn id="9" xr3:uid="{8560F0D7-BDC1-4A73-A6B3-669A6808CC78}" name="Leucine (g)"/>
+    <tableColumn id="10" xr3:uid="{4F626DAC-F9D9-40BD-9A47-DF00331CF82F}" name="Lysine (g)"/>
+    <tableColumn id="11" xr3:uid="{4935C5B9-2CE6-4AA3-98CD-FD5FE0BF944F}" name="Methionine (g)"/>
+    <tableColumn id="12" xr3:uid="{650FDFF2-E91F-485E-B650-ACA564235279}" name="Phenylalanine (g)"/>
+    <tableColumn id="13" xr3:uid="{2739F180-4407-4216-810E-0DD3C4067C8E}" name="Threonine (g)"/>
+    <tableColumn id="14" xr3:uid="{C9B4912D-1D64-4A16-A29E-09280E660237}" name="Tryptophan (g)"/>
+    <tableColumn id="15" xr3:uid="{0F5CDFF1-9595-4328-BA8E-727C4B40FAA7}" name="Tyrosine (g)"/>
+    <tableColumn id="16" xr3:uid="{EAC92DC2-B1DF-463D-92DF-14885EE7281E}" name="Valine (g)"/>
+    <tableColumn id="17" xr3:uid="{0AB25A2C-13FC-43A2-B29B-5B73F82017AF}" name="Monounsaturated Fat (g)"/>
+    <tableColumn id="18" xr3:uid="{A6D5C6BC-B8F8-45DE-BF29-744C4F6A8800}" name="Polyunsaturated Fat (g)"/>
+    <tableColumn id="19" xr3:uid="{8F1D33F5-D115-4321-B5F5-DEC40487498A}" name="Omega-3 (g)"/>
+    <tableColumn id="20" xr3:uid="{E1C50083-46B9-47A5-B5DE-2BB80064AA24}" name="Omega-3 ALA (g)"/>
+    <tableColumn id="21" xr3:uid="{498BE3EC-348A-4C16-98A9-10E55C28B3E2}" name="Omega-3 EPA (g)"/>
+    <tableColumn id="22" xr3:uid="{8743513E-B462-4DA3-A77F-802DC3DDF13E}" name="Omega-3 DHA (g)"/>
+    <tableColumn id="23" xr3:uid="{A778E080-7254-4AE1-B54A-161E25380B52}" name="Omega-6 (g)"/>
+    <tableColumn id="24" xr3:uid="{DCF38AFD-CDD7-4355-A5FA-D3E5B004B814}" name="Saturated Fat (g)"/>
+    <tableColumn id="25" xr3:uid="{32A839F6-44F3-4A05-9B3A-4FD849880EDC}" name="Trans Fat (g)"/>
+    <tableColumn id="26" xr3:uid="{9FCAF64F-9334-483D-9AC3-9571D17DC0A8}" name="Vitamin A (mcg)"/>
+    <tableColumn id="27" xr3:uid="{6105DBAF-BD92-41E4-A64C-8BE63C0BE070}" name="B1, Thiamine (mg)"/>
+    <tableColumn id="28" xr3:uid="{3D8CB56B-766B-4C01-863A-3093A67C7524}" name="B2, Riboflavin (mg)"/>
+    <tableColumn id="29" xr3:uid="{53DD5ADC-1DA9-4C47-88C4-6F2E65C884EF}" name="B3, Niacin (mg)"/>
+    <tableColumn id="30" xr3:uid="{EE71F819-F891-4C80-AD2D-1BFD435B0AD6}" name="B5, Pantothenic Acid (mg)"/>
+    <tableColumn id="31" xr3:uid="{A60C2BDD-8E85-4D85-A75D-5B1E9728F2BE}" name="B6, Pyridoxine (mg)"/>
+    <tableColumn id="32" xr3:uid="{5CEAABA6-FD6C-40F5-87C1-81B502D37F5C}" name="B12, Cobalamin (mcg)"/>
+    <tableColumn id="33" xr3:uid="{EE0A7C1E-1297-4E73-B379-900AA9F2CAA4}" name="Folate (mcg)"/>
+    <tableColumn id="34" xr3:uid="{B94E13FC-DD48-4C00-BF7D-AC738A3C07C1}" name="Vitamin C (mg)"/>
+    <tableColumn id="35" xr3:uid="{CDEB128A-8722-417A-8245-4ADA5D614A46}" name="Vitamin D (mcg)"/>
+    <tableColumn id="36" xr3:uid="{F76C5514-058F-496B-B77A-DA10888042B9}" name="Vitamin E (mg)"/>
+    <tableColumn id="37" xr3:uid="{EE0D3EF7-39E1-4EDF-A3CA-5E1C45B66690}" name="Vitamin K (mcg)"/>
+    <tableColumn id="38" xr3:uid="{5A97369A-B370-4FB4-A394-B8C859BA6708}" name="Calcium (mg)"/>
+    <tableColumn id="39" xr3:uid="{C1BAB3B9-4962-452A-BDCB-7C2503594667}" name="Copper (mg)"/>
+    <tableColumn id="40" xr3:uid="{63CD1D3E-A3E6-4A00-B3D1-84A574542AF5}" name="Iron (mg)"/>
+    <tableColumn id="41" xr3:uid="{0FF6C43D-22BB-451E-9163-329BAC1AB475}" name="Magnesium (mg)"/>
+    <tableColumn id="42" xr3:uid="{C9CB3CD4-D914-4333-96E7-1C83BF7E4490}" name="Manganese (mg)"/>
+    <tableColumn id="43" xr3:uid="{3712781D-5990-4B6D-B7B6-3B55F22E89D0}" name="Phosphorus (mg)"/>
+    <tableColumn id="44" xr3:uid="{58643082-6D54-449A-9C5A-043325421AAC}" name="Potassium (mg)"/>
+    <tableColumn id="45" xr3:uid="{6F9FF66E-4EF5-4031-B27F-03DB58CACC12}" name="Selenium (mcg)"/>
+    <tableColumn id="46" xr3:uid="{D6046BB6-0CAB-4437-A5E1-25296C6E4EA7}" name="Sodium (mg)"/>
+    <tableColumn id="47" xr3:uid="{0967DD91-4CB5-493C-A062-74965B72EC8C}" name="Zinc (mg)"/>
+    <tableColumn id="48" xr3:uid="{7E9B6FD6-03F3-4DE8-8923-B7BDA97E6D99}" name="Water (g)"/>
+    <tableColumn id="49" xr3:uid="{04E87C94-1F6B-4F57-A0A7-DC9C869E9554}" name="Choline (mg)"/>
+    <tableColumn id="50" xr3:uid="{7AA235E6-8556-4F29-A6FA-1C270F7A72B2}" name="Cholesterol (mg)"/>
+    <tableColumn id="51" xr3:uid="{DDA8D22F-58E5-4009-BD06-A681E7111E6B}" name="Caffeine (mg)"/>
+    <tableColumn id="52" xr3:uid="{023F45CF-0A01-44A0-868D-07A30C58DFED}" name="Alcohol (g)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD339CA5-0835-4F8E-A3D9-DC5D39ED8456}" name="Table3" displayName="Table3" ref="A1:C8" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
-  <autoFilter ref="A1:C8" xr:uid="{CD339CA5-0835-4F8E-A3D9-DC5D39ED8456}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3E9508ED-4BEA-4EBA-B0F3-A2645CBE4DC7}" name="Table3" displayName="Table3" ref="A1:C13" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="2" headerRowCellStyle="HeaderStyle">
+  <autoFilter ref="A1:C13" xr:uid="{3E9508ED-4BEA-4EBA-B0F3-A2645CBE4DC7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65876F13-210A-4842-87EC-239AE4F264D4}" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{727D7523-07FD-4392-AFA2-7BE940AA3240}" name="Weight (kg)"/>
-    <tableColumn id="3" xr3:uid="{E7028C6F-C23B-49EB-970A-860A94700BF0}" name="Fat Percent" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F29679B9-81D8-41AD-9551-4CCF229CE63A}" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CC1A6720-9554-4BB1-B343-8D839A917BFD}" name="Weight (kg)"/>
+    <tableColumn id="3" xr3:uid="{3A3BF99C-E232-4112-B7B4-B3F6D1487EB8}" name="Fat Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}" name="Table4" displayName="Table4" ref="A1:B15" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
-  <autoFilter ref="A1:B15" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}" name="Table4" displayName="Table4" ref="A1:B21" totalsRowShown="0" headerRowCellStyle="HeaderStyle">
+  <autoFilter ref="A1:B21" xr:uid="{DF0DEDA4-EF9F-4599-A629-9AB5F459093A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BF74E4DB-ACAA-4F26-9D4F-43F0FFF74D5E}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BF74E4DB-ACAA-4F26-9D4F-43F0FFF74D5E}" name="Date" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{1B5E13FB-E45E-4D51-B928-F94A07282E1B}" name="Expenditure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1617,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,6 +2259,74 @@
         <v>216</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45705</v>
+      </c>
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -1847,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AZ12"/>
+  <dimension ref="A1:AZ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AZ12"/>
+      <selection sqref="A1:AZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,1898 +2398,2530 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>45691</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AR2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AY2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="AY2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>45692</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="S3" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" t="s">
-        <v>77</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="S3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="Y3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AJ3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="AS3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT3" t="s">
+      <c r="AS3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AW3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX3" t="s">
+      <c r="AW3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AY3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="AY3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>45695</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" t="s">
-        <v>77</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="S4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="Y4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="Y4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AF4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AF4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="AH4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AH4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AJ4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AS4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT4" t="s">
+      <c r="AS4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT4" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AW4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX4" t="s">
+      <c r="AW4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AY4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ4" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>45696</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="S5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" t="s">
-        <v>77</v>
-      </c>
-      <c r="U5" t="s">
-        <v>77</v>
-      </c>
-      <c r="V5" t="s">
-        <v>77</v>
-      </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="S5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="Y5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="Y5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AF5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AF5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AR5" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT5" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV5" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW5" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="AY5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="AY5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>45697</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="U6" t="s">
-        <v>77</v>
-      </c>
-      <c r="V6" t="s">
-        <v>77</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="U6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="Y6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="Y6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z6" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AF6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AF6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AH6" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AM6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN6" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AO6" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AP6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AQ6" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AR6" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AT6" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AV6" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AW6" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AX6" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AY6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="AY6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>45698</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="U7" t="s">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="U7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="Y7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="Y7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z7" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO7" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AP7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AQ7" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AR7" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AT7" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AV7" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AW7" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AX7" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="AY7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="AY7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>45699</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="U8" t="s">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="U8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="Y8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="Y8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z8" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI8" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AK8" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AL8" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM8" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AO8" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AP8" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AQ8" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AR8" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS8" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AT8" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AU8" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AV8" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AW8" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AX8" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AY8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="AY8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>45701</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="U9" t="s">
-        <v>77</v>
-      </c>
-      <c r="V9" t="s">
-        <v>77</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="U9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="Y9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="Y9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z9" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AH9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI9" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AL9" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AM9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AN9" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AO9" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AP9" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AQ9" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AR9" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AT9" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AU9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AV9" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AW9" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AX9" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="AY9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ9" t="s">
+      <c r="AY9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>45702</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="Y10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="Y10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z10" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AH10" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI10" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AK10" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AL10" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AM10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AN10" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AP10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AQ10" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AR10" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AT10" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AU10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AV10" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AW10" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AX10" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AY10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="AY10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>45703</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="Y11" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="Y11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z11" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AE11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AF11" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG11" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AH11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AL11" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AM11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AN11" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AO11" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AP11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AQ11" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AR11" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS11" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AT11" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AU11" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AV11" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AW11" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AX11" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="AY11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ11" t="s">
+      <c r="AY11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ11" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="11">
         <v>45704</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U12" t="s">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="U12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Y12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="Y12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AH12" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI12" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AK12" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AL12" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AM12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AN12" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AO12" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AP12" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AQ12" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AR12" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AS12" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AT12" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AU12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AV12" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AW12" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AX12" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AY12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="AY12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45705</v>
+      </c>
+      <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>323</v>
+      </c>
+      <c r="R13" t="s">
+        <v>383</v>
+      </c>
+      <c r="S13" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" t="s">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s">
+        <v>271</v>
+      </c>
+      <c r="X13" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>394</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>396</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>397</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>400</v>
+      </c>
+      <c r="R14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S14" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" t="s">
+        <v>77</v>
+      </c>
+      <c r="V14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" t="s">
+        <v>291</v>
+      </c>
+      <c r="X14" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>403</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>405</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>406</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>407</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>408</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>409</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>410</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>411</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>412</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>415</v>
+      </c>
+      <c r="R15" t="s">
+        <v>416</v>
+      </c>
+      <c r="S15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" t="s">
+        <v>291</v>
+      </c>
+      <c r="X15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>420</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" t="s">
+        <v>423</v>
+      </c>
+      <c r="S16" t="s">
+        <v>102</v>
+      </c>
+      <c r="T16" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>431</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>432</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>433</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>434</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>435</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>436</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3813,10 +4936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3827,90 +4950,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>45696</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0.17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>45698</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>45699</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>45701</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>45702</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>45703</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="11">
         <v>45704</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45710</v>
+      </c>
+      <c r="B13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="10">
         <v>0.17</v>
       </c>
     </row>
@@ -3925,10 +5103,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4057,6 +5235,54 @@
         <v>366</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45705</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45710</v>
+      </c>
+      <c r="B21" t="s">
+        <v>445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
